--- a/evaluation/usefulness.xlsx
+++ b/evaluation/usefulness.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D369A52-15FE-5845-8860-572DAFFC2381}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89CDFF41-CFE3-4B43-ADF8-07561C5843E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Post ID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>quicksort mergesort</t>
   </si>
   <si>
-    <t>quicksort is more popular because it</t>
-  </si>
-  <si>
     <t>but there are many citations of real world tests which show that heapsort is significantly slower than quicksort on average</t>
   </si>
   <si>
@@ -161,6 +158,82 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Sentence in our model</t>
+  </si>
+  <si>
+    <t>same sentence</t>
+  </si>
+  <si>
+    <t>post has more capacity it can transfer more data than get</t>
+  </si>
+  <si>
+    <t>sometimes get is a better option in those read-only scenarios because it makes your url scheme richer and avoids these sort of post warnings</t>
+  </si>
+  <si>
+    <t>as far as security goes post is much better than get as the data is sent behind-the-scenes rather than embedded in the url making it the typical protocol for login info</t>
+  </si>
+  <si>
+    <t>it seems like udp will more efficient than tcp</t>
+  </si>
+  <si>
+    <t>also if you have very limited memory processing resources it is worth bearing in mind that udp is a less costly protocol as it avoids a lot of the overheads tcp incurs due to its inbuilt connection management</t>
+  </si>
+  <si>
+    <t>because of tcp requires connection and provides security it is slower than udp and therefore it should not be preffered during a video streaming</t>
+  </si>
+  <si>
+    <t>as a general rule udp is faster than tcp due to less protocol overhead</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>however on smaller int sizes quicksort gets slower and mergesort gets faster</t>
+  </si>
+  <si>
+    <t>mergesort may use more space than quicksort i m not entirely sure and merge may be better for linkedlists</t>
+  </si>
+  <si>
+    <t>you can also see that for smaller collections quicksort is faster but then mergesort takes the lead but all of this is case specific so take your time to study all 4 algorithms</t>
+  </si>
+  <si>
+    <t>mergesort - in general mergesort is consistently faster than quicksort however quicksort is done in place and doesn t require allocating memory unlike mergesort</t>
+  </si>
+  <si>
+    <t>quicksort is more popular because it is in-place mergesort requires extra memory linear to number of elements to be sorted</t>
+  </si>
+  <si>
+    <t>performance swing components are generally slower and buggier than awt due to both the fact that they are pure java and to video issues on various platforms</t>
+  </si>
+  <si>
+    <t>i mean by light weight i thought maybe the swing components occupy less memory than the awt components</t>
+  </si>
+  <si>
+    <t>generally swing is more efficient and advanced than awt</t>
+  </si>
+  <si>
+    <t>swing is relatively similar to awt apart from the fact that swing has more capabilities awt is probably the simplest form to start out with and has most if not all of the tools to complete your project hope this helps</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>post is a little more complex than get though</t>
+  </si>
+  <si>
+    <t>the fact that udp s header size is less than tcp s is because is a simpler protocol that needs less header space that s all there is to it</t>
+  </si>
+  <si>
+    <t>mergesort uses about 30 less comparisons than quicksort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">however i found that vmware is much more stable full screen resolution much much better to handle the iphone connection via usb and i didn t have yet any crash when on virtualbox it s quite often
+</t>
+  </si>
+  <si>
+    <t>swing has newer and better api s than awt</t>
   </si>
 </sst>
 </file>
@@ -216,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -225,6 +298,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,20 +605,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="175.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -550,15 +628,24 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>46614</v>
@@ -566,10 +653,13 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>46614</v>
@@ -577,10 +667,13 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>47335</v>
@@ -588,10 +681,13 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>943861</v>
@@ -599,15 +695,21 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>5970545</v>
@@ -615,10 +717,13 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>5970545</v>
@@ -626,10 +731,13 @@
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>5970686</v>
@@ -637,10 +745,13 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>5978352</v>
@@ -648,10 +759,13 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>5978352</v>
@@ -659,10 +773,13 @@
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>5978352</v>
@@ -670,10 +787,13 @@
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>16308453</v>
@@ -681,10 +801,13 @@
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>41901995</v>
@@ -692,134 +815,173 @@
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>70421</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>70423</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>70427</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>70430</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>70430</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>70440</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>70440</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>70627</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>77945</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>77945</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>90477</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -827,182 +989,236 @@
         <v>1727198</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>39156435</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>39156435</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>42183380</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>42183380</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>630233</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>630233</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>901826</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>1090158</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>14627362</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>14627362</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>14627362</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>15950286</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>15950286</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>16810355</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>16810355</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
